--- a/goooodnes/evidence.xlsx
+++ b/goooodnes/evidence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\goooodnes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\###goooodnes####\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10755" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>TxHash</t>
   </si>
@@ -72,12 +72,6 @@
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -172,6 +166,135 @@
   </si>
   <si>
     <t>87F1287B25FBC4C5F96B49EEB52F984399E959B51732D69A85E7D68C0AE6A7E4</t>
+  </si>
+  <si>
+    <t>ibc/E5332E7B0A58DC527B97C822AF444E4031E4789482EEED9C6B00B2B9C675B665</t>
+  </si>
+  <si>
+    <t>goooodnes07</t>
+  </si>
+  <si>
+    <t>ibc/FEBD320C6E54501F187ECB3D4E5169CDB0C84F8464EAF9695B2A700248F87F8B</t>
+  </si>
+  <si>
+    <t>goooodnes08</t>
+  </si>
+  <si>
+    <t>ibc/4FC0E53A76EEA23F7DFD3B6DAFD8EE28994968689736C333C81A686CF479698A</t>
+  </si>
+  <si>
+    <t>goooodnes09</t>
+  </si>
+  <si>
+    <t>ibc/65F40E7808040B7F8EEBD3FA742C4613E3CE7B2E76A9E3C14591E3D12B983AC2</t>
+  </si>
+  <si>
+    <t>goooodnes010</t>
+  </si>
+  <si>
+    <t>ibc/A5A00A71764683D44F548895F30C0B026F33F0588C66C4B41A9FC47E24A1E98A</t>
+  </si>
+  <si>
+    <t>goooodnes011</t>
+  </si>
+  <si>
+    <t>ibc/FAFB38FA302EA86CB8343C0F64133FFEF654B7540653A90BAA135C2B2EAE1BE5</t>
+  </si>
+  <si>
+    <t>goooodnes012</t>
+  </si>
+  <si>
+    <t>4645AFC9AB2CBA4F3FF7615A58CF2C8590B2D013885B61A3903923B35F1812BD</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>BC659F84EB3A942AACD76524E7C7EEB7811BD6A7D55F323B6A68831E2BBF226D</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>39FA35924CC99CBF4BA9907439C3B99604BEFFB8FFA5E5704C11E2FD078BC992</t>
+  </si>
+  <si>
+    <t>06A0C53CB110088103C5F3CD5E0F5B24E056542D32E99D2A8AF56EF5271EDB96</t>
+  </si>
+  <si>
+    <t>548AFDBD40D538350AF629A51875B096A6A32AA565E092C96053F57ACEF56C81</t>
+  </si>
+  <si>
+    <t>674777BC9BF6A5D8AECC66FC48708E6AAE2E4754BC011ADC2D092818638834DB</t>
+  </si>
+  <si>
+    <t>5AA5C645396B4D3A09499D706AC6CBCDB84B1AC127F3A0386F530B005D48426E</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>0D246FA9D96A38EAC53A2DCB0154DC42EEE7025AC6935BD497E3C9CBCC76F034</t>
+  </si>
+  <si>
+    <t>8327502DB51F38CB53AE6BA2B5F986D96730636E4D7CFF826F3AE6410B3D8ED4</t>
+  </si>
+  <si>
+    <t>051FE9B1B9F3C455452BBEFC4D776A693C9A6BA176916DA9B7ADEA2CF3773966</t>
+  </si>
+  <si>
+    <t>A867BEB9AE4C5141B65690B5F156B0E0EDB8A57918E464FB47BF23220580D592</t>
+  </si>
+  <si>
+    <t>2FF671AE7B8BB3CCE424EEABDF0DE8130A568BBAF062A88FD7E6BDDDB9098DA1</t>
+  </si>
+  <si>
+    <t>B91D58B5562C85375E38A041B757C2B14F1FC6D3C191DF4E7F2E75D4327FFC75</t>
+  </si>
+  <si>
+    <t>65EF5538C5D21E42A11FC616D4CD5243A93FE6B60A724FF6C917C24439250F62</t>
+  </si>
+  <si>
+    <t>C30B3F9455E0C28A4EB0C99C1C478D0D36232EB7C0C22B6DE504A0A20A23EEF2</t>
+  </si>
+  <si>
+    <t>762B37AF8632B497154CC91FDE0C6728DD08D7C0584E7B5B4EFCDDCF0C3DE2BC</t>
+  </si>
+  <si>
+    <t>7E2AB2EA24F5F36807451453257605A222B6C0CB18BA0032C6D98948A45B545A</t>
+  </si>
+  <si>
+    <t>6B371E3CEA23F83A2213ADE1AE5F5B2ADEE696A1FB47A8F61D4CC768D7A37BD6</t>
+  </si>
+  <si>
+    <t>1C7B45F970A362A65BB4CBA5309D9E9DDA8181F12A5116515F4A2BD2CD06A2E4</t>
+  </si>
+  <si>
+    <t>CDE55386A4DD0809699C6207449E5268C70720804170AE734877B308DF752625</t>
+  </si>
+  <si>
+    <t>273A4AB9D86C1DAF28D4776A69D824DACD21B8FDC438DD41640A799B9B5EB37E</t>
+  </si>
+  <si>
+    <t>1A01199641E6A4F97856093B73D8D6945645CC844ED29292B1AF20CE21157559</t>
+  </si>
+  <si>
+    <t>35D698AA8A584015533E51D3ED8498D28686F4DCBA21DD252A04026DCAA63C53</t>
+  </si>
+  <si>
+    <t>9EF9BD639F0202D3469026FD95BFA306F7067FB44540794BE8CB70574E51E74F</t>
+  </si>
+  <si>
+    <t>E16FBA15379DE62ECF7CA173C4352199D291A2AD2F59E9E506D83A146AD1CE3B</t>
+  </si>
+  <si>
+    <t>2482C127F059764ABD2C7049CD39502F853A1BE9EC83E8AC0DA7CB650724EDEA</t>
+  </si>
+  <si>
+    <t>9BB80E2AF6CB2F7FC4CA6D97C46D491E81A541BDB3ADD0605B43F1CECDB11164</t>
+  </si>
+  <si>
+    <t>579B58D4F87044015680B737C19DB42C09DC07479B9240AE3645691EBF966712</t>
   </si>
 </sst>
 </file>
@@ -568,8 +691,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,55 +709,55 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -649,7 +772,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -667,10 +792,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +810,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -703,10 +830,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +848,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -739,10 +868,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +886,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -775,10 +906,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -787,6 +918,130 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -834,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -882,204 +1137,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1087,41 +1150,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1136,37 +1164,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1184,23 +1226,228 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,35 +1620,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1443,16 +1690,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1494,16 +1741,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1545,16 +1792,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1597,16 +1844,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1868,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1639,10 +1888,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1906,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1675,10 +1926,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/goooodnes/evidence.xlsx
+++ b/goooodnes/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10755" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -57,15 +57,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
@@ -295,6 +286,30 @@
   </si>
   <si>
     <t>579B58D4F87044015680B737C19DB42C09DC07479B9240AE3645691EBF966712</t>
+  </si>
+  <si>
+    <t>125F5677B74AF8C8A10A6F634B1AC0554D9D596F3A5E5BE5138195065DC8322F</t>
+  </si>
+  <si>
+    <t>6EF6D621616CC2A724D3CDE8B116BB6477E46111E2A84F3442F317A482D5F0F6</t>
+  </si>
+  <si>
+    <t>02DF54B1418A425D52246B7553D701C9F15EC49BA57F30DD7B0A53FE045BE467</t>
+  </si>
+  <si>
+    <t>E04EC6930767C8D8EEB1A067AD0263FB93949D6F6734598A9A4889CF3EF5C42B</t>
+  </si>
+  <si>
+    <t>DAF2BC6D26245A6890A90964C43E3768B0515B8B0A9CCF49D3D94570FDB82DEC</t>
+  </si>
+  <si>
+    <t>9A550F3EA665FE889760046D23D2E20CA2E540BCEB1386E6C6DE2E2D5D5ABDC5</t>
+  </si>
+  <si>
+    <t>5558C212B104C85DFAA6E5BFF2E5EDC9B0AD0864A8AA6E5A3B31B6990637E87E</t>
+  </si>
+  <si>
+    <t>4A1AC68562DBD6408EE460972DD21F3E5CC8A19130F0673D263C932A74532ACD</t>
   </si>
 </sst>
 </file>
@@ -691,8 +706,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,54 +724,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -784,18 +799,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -822,18 +837,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +863,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -860,18 +875,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -898,18 +913,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -944,34 +959,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1006,34 +1021,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1046,9 +1061,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1066,26 +1083,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1094,9 +1124,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1114,23 +1146,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,23 +1208,85 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -1188,23 +1294,23 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1212,6 +1318,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1226,47 +1369,63 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1274,43 +1433,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1325,128 +1447,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1612,43 +1656,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1679,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1690,16 +1734,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1741,16 +1785,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1781,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1792,16 +1836,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1833,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1844,16 +1888,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1880,18 +1924,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1918,18 +1962,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
